--- a/Ratchanon_TimeSheet.xlsx
+++ b/Ratchanon_TimeSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rs250927\Documents\เดือน11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D5FD17-9320-44C5-8E94-798F2945CB0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B03CD01-C62A-4FAF-A149-789FBE131011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,30 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>TIMESHEET</t>
-  </si>
-  <si>
-    <r>
-      <t>Company:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">  NCR (Thailand) Ltd.</t>
-    </r>
   </si>
   <si>
     <t>Month:</t>
   </si>
   <si>
     <t>Month</t>
-  </si>
-  <si>
-    <t>Employee Name: Ratchanon Sakdamanee</t>
   </si>
   <si>
     <r>
@@ -82,18 +67,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <r>
-      <t>Position:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Application Service Consultant</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Department:  </t>
@@ -147,31 +120,10 @@
     <t>Holiday</t>
   </si>
   <si>
-    <t>HSBC PROJECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST UAT ESS </t>
-  </si>
-  <si>
-    <t>HSBC PROJECT and TBANK PROJECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST UAT ESS and support mock run export data </t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>..........................................................</t>
-  </si>
-  <si>
-    <t>(   Ratchanon Sakdamanee    )</t>
   </si>
   <si>
     <t>(                                                          )</t>
@@ -181,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Date: </t>
+  </si>
+  <si>
+    <t>03/02/2021</t>
   </si>
   <si>
     <t>Date:</t>
@@ -193,12 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Approved by: Project Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skillpower Services (Thailand) Co., Ltd.
-Unit 21/1, 21st Fl., BUI Building, 177/1 Soi Anumanrachathon 1, Surawongse Rd., Suriyawongse, Bangrak, Bangkok 10500, Thailand
-Tel.: 0-2634-7591 Fax.: 0-2634-7599
-</t>
   </si>
 </sst>
 </file>
@@ -748,7 +697,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -797,6 +745,8 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -842,7 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -858,97 +807,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="828675"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="image1.png" descr="mp_logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8F7D38-4D13-4EBC-944F-FDCBD0BDA28A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="41132" t="38841" r="25399" b="42075"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638175" y="11068050"/>
-          <a:ext cx="1609725" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1154,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1267,32 +1125,30 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="93"/>
+      <c r="J4" s="94"/>
       <c r="K4" s="4">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="6"/>
       <c r="N4" s="3"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="10"/>
@@ -1305,29 +1161,27 @@
       <c r="Z4" s="10"/>
     </row>
     <row r="5" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="11" t="s">
-        <v>6</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="3"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="28">
         <v>2021</v>
@@ -1343,26 +1197,24 @@
       <c r="Z5" s="10"/>
     </row>
     <row r="6" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A6" s="92" t="s">
-        <v>8</v>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="93" t="s">
+        <v>6</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
       <c r="M6" s="12"/>
       <c r="N6" s="3"/>
       <c r="O6" s="13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
@@ -1405,31 +1257,31 @@
       <c r="Z7" s="10"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="F8" s="91"/>
+      <c r="G8" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="89" t="s">
+      <c r="L8" s="87" t="s">
         <v>14</v>
-      </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="86" t="s">
-        <v>17</v>
       </c>
       <c r="M8" s="27"/>
       <c r="N8" s="3"/>
@@ -1447,34 +1299,34 @@
       <c r="Z8" s="10"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="27"/>
       <c r="N9" s="3"/>
       <c r="O9" s="10"/>
@@ -1483,45 +1335,45 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A10" s="62" t="str">
+      <c r="A10" s="61" t="str">
         <f t="shared" ref="A10:A38" si="0">IF(W10=1, "Sun", IF(W10=2, "Mon", IF(W10=3, "Tue", IF(W10=4, "Wed", IF(W10=5, "Thu", IF(W10=6, "Fri", IF(W10=7, "Sat", "")))))))</f>
         <v>Fri</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="61">
         <f t="shared" ref="B10:B13" si="1">IF(V10=$Q$4,T10,"")</f>
         <v>1</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="62">
         <v>0.375</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="62">
         <v>0.75</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="66" t="s">
-        <v>25</v>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="3"/>
@@ -1535,11 +1387,11 @@
       </c>
       <c r="U10" s="20">
         <f t="shared" ref="U10:U40" si="2">DATE($Q$5,$Q$4,T10)</f>
-        <v>44197</v>
+        <v>44470</v>
       </c>
       <c r="V10" s="21">
         <f t="shared" ref="V10:V40" si="3">MONTH(U10)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W10" s="22">
         <f t="shared" ref="W10:W40" si="4">IF(V10=$Q$4,WEEKDAY(U10),"")</f>
@@ -1550,28 +1402,28 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A11" s="62" t="str">
+      <c r="A11" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="61">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="62">
         <v>0.375</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="62">
         <v>0.75</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="66"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="65"/>
       <c r="M11" s="16"/>
       <c r="N11" s="3"/>
       <c r="O11" s="17"/>
@@ -1584,11 +1436,11 @@
       </c>
       <c r="U11" s="20">
         <f t="shared" si="2"/>
-        <v>44198</v>
+        <v>44471</v>
       </c>
       <c r="V11" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W11" s="22">
         <f t="shared" si="4"/>
@@ -1599,28 +1451,28 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="62" t="str">
+      <c r="A12" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="62">
         <v>0.375</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="62">
         <v>0.75</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="66"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="65"/>
       <c r="M12" s="16"/>
       <c r="N12" s="3"/>
       <c r="O12" s="17"/>
@@ -1633,11 +1485,11 @@
       </c>
       <c r="U12" s="20">
         <f t="shared" si="2"/>
-        <v>44199</v>
+        <v>44472</v>
       </c>
       <c r="V12" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W12" s="22">
         <f t="shared" si="4"/>
@@ -1648,32 +1500,28 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="56" t="str">
+      <c r="A13" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="55">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="56">
         <v>0.375</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="56">
         <v>0.75</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
       <c r="M13" s="16"/>
       <c r="N13" s="3"/>
       <c r="O13" s="17"/>
@@ -1686,11 +1534,11 @@
       </c>
       <c r="U13" s="20">
         <f t="shared" si="2"/>
-        <v>44200</v>
+        <v>44473</v>
       </c>
       <c r="V13" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W13" s="22">
         <f t="shared" si="4"/>
@@ -1701,31 +1549,27 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="56" t="str">
+      <c r="A14" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="55">
         <v>5</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="56">
         <v>0.375</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="56">
         <v>0.75</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
       <c r="M14" s="16"/>
       <c r="N14" s="3"/>
       <c r="O14" s="17"/>
@@ -1738,11 +1582,11 @@
       </c>
       <c r="U14" s="20">
         <f t="shared" si="2"/>
-        <v>44201</v>
+        <v>44474</v>
       </c>
       <c r="V14" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W14" s="22">
         <f t="shared" si="4"/>
@@ -1753,32 +1597,28 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A15" s="60" t="str">
+      <c r="A15" s="59" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="59">
         <f t="shared" ref="B15:B38" si="5">IF(V15=$Q$4,T15,"")</f>
         <v>6</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="56">
         <v>0.375</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="56">
         <v>0.75</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
       <c r="M15" s="16"/>
       <c r="N15" s="3"/>
       <c r="O15" s="31"/>
@@ -1791,11 +1631,11 @@
       </c>
       <c r="U15" s="20">
         <f t="shared" si="2"/>
-        <v>44202</v>
+        <v>44475</v>
       </c>
       <c r="V15" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W15" s="22">
         <f t="shared" si="4"/>
@@ -1806,32 +1646,28 @@
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A16" s="56" t="str">
+      <c r="A16" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="55">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="56">
         <v>0.375</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="56">
         <v>0.75</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
       <c r="M16" s="16"/>
       <c r="N16" s="3"/>
       <c r="O16" s="17"/>
@@ -1844,11 +1680,11 @@
       </c>
       <c r="U16" s="20">
         <f t="shared" si="2"/>
-        <v>44203</v>
+        <v>44476</v>
       </c>
       <c r="V16" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W16" s="22">
         <f t="shared" si="4"/>
@@ -1859,32 +1695,28 @@
       <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A17" s="56" t="str">
+      <c r="A17" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="55">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="56">
         <v>0.375</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="56">
         <v>0.75</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
       <c r="M17" s="16"/>
       <c r="N17" s="3"/>
       <c r="O17" s="17"/>
@@ -1897,11 +1729,11 @@
       </c>
       <c r="U17" s="20">
         <f t="shared" si="2"/>
-        <v>44204</v>
+        <v>44477</v>
       </c>
       <c r="V17" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W17" s="22">
         <f t="shared" si="4"/>
@@ -1912,28 +1744,28 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A18" s="62" t="str">
+      <c r="A18" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="61">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="62">
         <v>0.375</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="62">
         <v>0.75</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
       <c r="M18" s="16"/>
       <c r="N18" s="3"/>
       <c r="O18" s="17"/>
@@ -1946,11 +1778,11 @@
       </c>
       <c r="U18" s="20">
         <f t="shared" si="2"/>
-        <v>44205</v>
+        <v>44478</v>
       </c>
       <c r="V18" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W18" s="22">
         <f t="shared" si="4"/>
@@ -1961,28 +1793,28 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A19" s="62" t="str">
+      <c r="A19" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="61">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="62">
         <v>0.375</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="62">
         <v>0.75</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
       <c r="M19" s="16"/>
       <c r="N19" s="3"/>
       <c r="O19" s="17"/>
@@ -1995,11 +1827,11 @@
       </c>
       <c r="U19" s="20">
         <f t="shared" si="2"/>
-        <v>44206</v>
+        <v>44479</v>
       </c>
       <c r="V19" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W19" s="22">
         <f t="shared" si="4"/>
@@ -2010,32 +1842,28 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A20" s="56" t="str">
+      <c r="A20" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="55">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="56">
         <v>0.375</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="56">
         <v>0.75</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="58"/>
       <c r="M20" s="16"/>
       <c r="N20" s="3"/>
       <c r="O20" s="17"/>
@@ -2048,11 +1876,11 @@
       </c>
       <c r="U20" s="20">
         <f t="shared" si="2"/>
-        <v>44207</v>
+        <v>44480</v>
       </c>
       <c r="V20" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W20" s="22">
         <f t="shared" si="4"/>
@@ -2063,32 +1891,28 @@
       <c r="Z20" s="17"/>
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="56" t="str">
+      <c r="A21" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="55">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="56">
         <v>0.375</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="56">
         <v>0.75</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
       <c r="M21" s="16"/>
       <c r="N21" s="3"/>
       <c r="O21" s="17"/>
@@ -2101,11 +1925,11 @@
       </c>
       <c r="U21" s="20">
         <f t="shared" si="2"/>
-        <v>44208</v>
+        <v>44481</v>
       </c>
       <c r="V21" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W21" s="22">
         <f t="shared" si="4"/>
@@ -2116,32 +1940,28 @@
       <c r="Z21" s="17"/>
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A22" s="56" t="str">
+      <c r="A22" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="55">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="56">
         <v>0.375</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="56">
         <v>0.75</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
       <c r="M22" s="16"/>
       <c r="N22" s="3"/>
       <c r="O22" s="16"/>
@@ -2154,11 +1974,11 @@
       </c>
       <c r="U22" s="20">
         <f t="shared" si="2"/>
-        <v>44209</v>
+        <v>44482</v>
       </c>
       <c r="V22" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W22" s="22">
         <f t="shared" si="4"/>
@@ -2169,31 +1989,27 @@
       <c r="Z22" s="17"/>
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A23" s="56" t="str">
+      <c r="A23" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="55">
         <v>14</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="56">
         <v>0.375</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="56">
         <v>0.75</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="58"/>
       <c r="M23" s="16"/>
       <c r="N23" s="3"/>
       <c r="O23" s="17"/>
@@ -2206,11 +2022,11 @@
       </c>
       <c r="U23" s="20">
         <f t="shared" si="2"/>
-        <v>44210</v>
+        <v>44483</v>
       </c>
       <c r="V23" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W23" s="22">
         <f t="shared" si="4"/>
@@ -2221,32 +2037,28 @@
       <c r="Z23" s="17"/>
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A24" s="56" t="str">
+      <c r="A24" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="B24" s="56">
+      <c r="B24" s="55">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="56">
         <v>0.375</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="56">
         <v>0.75</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="16"/>
       <c r="N24" s="3"/>
       <c r="O24" s="17"/>
@@ -2259,11 +2071,11 @@
       </c>
       <c r="U24" s="20">
         <f t="shared" si="2"/>
-        <v>44211</v>
+        <v>44484</v>
       </c>
       <c r="V24" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W24" s="22">
         <f t="shared" si="4"/>
@@ -2274,28 +2086,28 @@
       <c r="Z24" s="17"/>
     </row>
     <row r="25" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A25" s="62" t="str">
+      <c r="A25" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="61">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="62">
         <v>0.375</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="62">
         <v>0.75</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="66"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="65"/>
       <c r="M25" s="16"/>
       <c r="N25" s="3"/>
       <c r="O25" s="17"/>
@@ -2308,11 +2120,11 @@
       </c>
       <c r="U25" s="20">
         <f t="shared" si="2"/>
-        <v>44212</v>
+        <v>44485</v>
       </c>
       <c r="V25" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W25" s="22">
         <f t="shared" si="4"/>
@@ -2323,28 +2135,28 @@
       <c r="Z25" s="17"/>
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A26" s="62" t="str">
+      <c r="A26" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="61">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="62">
         <v>0.375</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="62">
         <v>0.75</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="66"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="65"/>
       <c r="M26" s="16"/>
       <c r="N26" s="3"/>
       <c r="O26" s="17"/>
@@ -2357,11 +2169,11 @@
       </c>
       <c r="U26" s="20">
         <f t="shared" si="2"/>
-        <v>44213</v>
+        <v>44486</v>
       </c>
       <c r="V26" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W26" s="22">
         <f t="shared" si="4"/>
@@ -2372,32 +2184,28 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="1:26" ht="24" customHeight="1">
-      <c r="A27" s="56" t="str">
+      <c r="A27" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="55">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="56">
         <v>0.375</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="56">
         <v>0.75</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="58"/>
       <c r="M27" s="16"/>
       <c r="N27" s="3"/>
       <c r="O27" s="17"/>
@@ -2410,11 +2218,11 @@
       </c>
       <c r="U27" s="20">
         <f t="shared" si="2"/>
-        <v>44214</v>
+        <v>44487</v>
       </c>
       <c r="V27" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W27" s="22">
         <f t="shared" si="4"/>
@@ -2425,32 +2233,28 @@
       <c r="Z27" s="17"/>
     </row>
     <row r="28" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A28" s="56" t="str">
+      <c r="A28" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="55">
         <f>IF(V28=$Q$4,T28,"")</f>
         <v>19</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="56">
         <v>0.375</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="56">
         <v>0.75</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="58"/>
       <c r="M28" s="16"/>
       <c r="N28" s="3"/>
       <c r="O28" s="17"/>
@@ -2463,11 +2267,11 @@
       </c>
       <c r="U28" s="20">
         <f t="shared" si="2"/>
-        <v>44215</v>
+        <v>44488</v>
       </c>
       <c r="V28" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W28" s="22">
         <f t="shared" si="4"/>
@@ -2478,32 +2282,28 @@
       <c r="Z28" s="17"/>
     </row>
     <row r="29" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A29" s="56" t="str">
+      <c r="A29" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="55">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="56">
         <v>0.375</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="56">
         <v>0.75</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="58"/>
       <c r="M29" s="16"/>
       <c r="N29" s="3"/>
       <c r="O29" s="17"/>
@@ -2516,11 +2316,11 @@
       </c>
       <c r="U29" s="20">
         <f t="shared" si="2"/>
-        <v>44216</v>
+        <v>44489</v>
       </c>
       <c r="V29" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W29" s="22">
         <f t="shared" si="4"/>
@@ -2531,32 +2331,28 @@
       <c r="Z29" s="17"/>
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A30" s="56" t="str">
+      <c r="A30" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="55">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="56">
         <v>0.375</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="56">
         <v>0.75</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="58"/>
       <c r="M30" s="16"/>
       <c r="N30" s="3"/>
       <c r="O30" s="17"/>
@@ -2569,11 +2365,11 @@
       </c>
       <c r="U30" s="20">
         <f t="shared" si="2"/>
-        <v>44217</v>
+        <v>44490</v>
       </c>
       <c r="V30" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W30" s="22">
         <f t="shared" si="4"/>
@@ -2584,32 +2380,28 @@
       <c r="Z30" s="17"/>
     </row>
     <row r="31" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A31" s="56" t="str">
+      <c r="A31" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="55">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="56">
         <v>0.375</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="56">
         <v>0.75</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58"/>
       <c r="M31" s="16"/>
       <c r="N31" s="3"/>
       <c r="O31" s="17"/>
@@ -2622,11 +2414,11 @@
       </c>
       <c r="U31" s="20">
         <f t="shared" si="2"/>
-        <v>44218</v>
+        <v>44491</v>
       </c>
       <c r="V31" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W31" s="22">
         <f t="shared" si="4"/>
@@ -2637,28 +2429,28 @@
       <c r="Z31" s="17"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A32" s="62" t="str">
+      <c r="A32" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="61">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="62">
         <v>0.375</v>
       </c>
-      <c r="D32" s="63">
+      <c r="D32" s="62">
         <v>0.75</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="66"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="65"/>
       <c r="M32" s="16"/>
       <c r="N32" s="3"/>
       <c r="O32" s="17"/>
@@ -2671,11 +2463,11 @@
       </c>
       <c r="U32" s="20">
         <f t="shared" si="2"/>
-        <v>44219</v>
+        <v>44492</v>
       </c>
       <c r="V32" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W32" s="22">
         <f t="shared" si="4"/>
@@ -2686,28 +2478,28 @@
       <c r="Z32" s="17"/>
     </row>
     <row r="33" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A33" s="62" t="str">
+      <c r="A33" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="61">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="62">
         <v>0.375</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="62">
         <v>0.75</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="66"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="65"/>
       <c r="M33" s="16"/>
       <c r="N33" s="3"/>
       <c r="O33" s="17"/>
@@ -2720,11 +2512,11 @@
       </c>
       <c r="U33" s="20">
         <f t="shared" si="2"/>
-        <v>44220</v>
+        <v>44493</v>
       </c>
       <c r="V33" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W33" s="22">
         <f t="shared" si="4"/>
@@ -2735,32 +2527,28 @@
       <c r="Z33" s="17"/>
     </row>
     <row r="34" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A34" s="56" t="str">
+      <c r="A34" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="55">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="56">
         <v>0.375</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="56">
         <v>0.75</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58"/>
       <c r="M34" s="16"/>
       <c r="N34" s="3"/>
       <c r="O34" s="17"/>
@@ -2773,11 +2561,11 @@
       </c>
       <c r="U34" s="20">
         <f t="shared" si="2"/>
-        <v>44221</v>
+        <v>44494</v>
       </c>
       <c r="V34" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W34" s="22">
         <f t="shared" si="4"/>
@@ -2788,32 +2576,28 @@
       <c r="Z34" s="17"/>
     </row>
     <row r="35" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A35" s="56" t="str">
+      <c r="A35" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="55">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="56">
         <v>0.375</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="56">
         <v>0.75</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
       <c r="M35" s="16"/>
       <c r="N35" s="3"/>
       <c r="O35" s="17"/>
@@ -2826,11 +2610,11 @@
       </c>
       <c r="U35" s="20">
         <f t="shared" si="2"/>
-        <v>44222</v>
+        <v>44495</v>
       </c>
       <c r="V35" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W35" s="22">
         <f t="shared" si="4"/>
@@ -2841,32 +2625,28 @@
       <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A36" s="56" t="str">
+      <c r="A36" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="55">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="56">
         <v>0.375</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="56">
         <v>0.75</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="58"/>
       <c r="M36" s="16"/>
       <c r="N36" s="3"/>
       <c r="O36" s="16"/>
@@ -2879,11 +2659,11 @@
       </c>
       <c r="U36" s="20">
         <f t="shared" si="2"/>
-        <v>44223</v>
+        <v>44496</v>
       </c>
       <c r="V36" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W36" s="22">
         <f t="shared" si="4"/>
@@ -2894,32 +2674,28 @@
       <c r="Z36" s="17"/>
     </row>
     <row r="37" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A37" s="56" t="str">
+      <c r="A37" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37" s="55">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="56">
         <v>0.375</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="56">
         <v>0.75</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="59" t="s">
-        <v>29</v>
-      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="58"/>
       <c r="M37" s="16"/>
       <c r="N37" s="3"/>
       <c r="O37" s="17"/>
@@ -2932,11 +2708,11 @@
       </c>
       <c r="U37" s="20">
         <f t="shared" si="2"/>
-        <v>44224</v>
+        <v>44497</v>
       </c>
       <c r="V37" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W37" s="22">
         <f t="shared" si="4"/>
@@ -2947,32 +2723,28 @@
       <c r="Z37" s="17"/>
     </row>
     <row r="38" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A38" s="56" t="str">
+      <c r="A38" s="55" t="str">
         <f>IF(W38=1, "Sun", IF(W38=2, "Mon", IF(W38=3, "Tue", IF(W38=4, "Wed", IF(W38=5, "Thu", IF(W38=6, "Fri", IF(W38=7, "Sat", "")))))))</f>
         <v>Fri</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B38" s="55">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="56">
         <v>0.375</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="56">
         <v>0.75</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58"/>
       <c r="M38" s="16"/>
       <c r="N38" s="3"/>
       <c r="O38" s="17"/>
@@ -2985,11 +2757,11 @@
       </c>
       <c r="U38" s="20">
         <f t="shared" si="2"/>
-        <v>44225</v>
+        <v>44498</v>
       </c>
       <c r="V38" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W38" s="22">
         <f t="shared" si="4"/>
@@ -3000,26 +2772,27 @@
       <c r="Z38" s="17"/>
     </row>
     <row r="39" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="61" t="str">
+        <f>IF(W39=1, "Sun", IF(W39=2, "Mon", IF(W39=3, "Tue", IF(W39=4, "Wed", IF(W39=5, "Thu", IF(W39=6, "Fri", IF(W39=7, "Sat", "")))))))</f>
+        <v>Sat</v>
+      </c>
+      <c r="B39" s="61">
         <v>30</v>
       </c>
-      <c r="B39" s="62">
-        <v>30</v>
-      </c>
-      <c r="C39" s="63">
+      <c r="C39" s="62">
         <v>0.375</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="62">
         <v>0.75</v>
       </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="66"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="65"/>
       <c r="M39" s="16"/>
       <c r="N39" s="3"/>
       <c r="O39" s="17"/>
@@ -3032,11 +2805,11 @@
       </c>
       <c r="U39" s="20">
         <f t="shared" si="2"/>
-        <v>44226</v>
+        <v>44499</v>
       </c>
       <c r="V39" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W39" s="22">
         <f t="shared" si="4"/>
@@ -3047,26 +2820,27 @@
       <c r="Z39" s="17"/>
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="70" t="str">
+        <f>IF(W40=1, "Sun", IF(W40=2, "Mon", IF(W40=3, "Tue", IF(W40=4, "Wed", IF(W40=5, "Thu", IF(W40=6, "Fri", IF(W40=7, "Sat", "")))))))</f>
+        <v>Sun</v>
+      </c>
+      <c r="B40" s="70">
         <v>31</v>
       </c>
-      <c r="B40" s="71">
-        <v>31</v>
-      </c>
-      <c r="C40" s="63">
+      <c r="C40" s="62">
         <v>0.375</v>
       </c>
-      <c r="D40" s="63">
+      <c r="D40" s="62">
         <v>0.75</v>
       </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
       <c r="M40" s="16"/>
       <c r="N40" s="3"/>
       <c r="O40" s="17"/>
@@ -3079,11 +2853,11 @@
       </c>
       <c r="U40" s="20">
         <f t="shared" si="2"/>
-        <v>44227</v>
+        <v>44500</v>
       </c>
       <c r="V40" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W40" s="22">
         <f t="shared" si="4"/>
@@ -3094,14 +2868,14 @@
       <c r="Z40" s="17"/>
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A41" s="83" t="s">
-        <v>32</v>
+      <c r="A41" s="84" t="s">
+        <v>23</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="86"/>
       <c r="G41" s="37">
         <f t="shared" ref="G41:J41" si="6">SUM(G10:G40)</f>
         <v>0</v>
@@ -3136,12 +2910,12 @@
       <c r="Z41" s="10"/>
     </row>
     <row r="42" spans="1:26" ht="12.75">
-      <c r="A42" s="72"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="55"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="43"/>
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
@@ -3170,15 +2944,15 @@
       <c r="D43" s="34"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
-      <c r="G43" s="77" t="s">
-        <v>33</v>
+      <c r="G43" s="78" t="s">
+        <v>24</v>
       </c>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="80"/>
       <c r="L43" s="54" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M43" s="33"/>
       <c r="N43" s="33"/>
@@ -3196,23 +2970,21 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A44" s="77" t="s">
-        <v>34</v>
+      <c r="A44" s="78"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="75" t="s">
+        <v>25</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="77"/>
       <c r="L44" s="53" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M44" s="33"/>
       <c r="N44" s="33"/>
@@ -3231,24 +3003,24 @@
     </row>
     <row r="45" spans="1:26" ht="17.25" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
-      <c r="B45" s="95">
-        <v>44257</v>
+      <c r="B45" s="71" t="s">
+        <v>28</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="42" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H45" s="46"/>
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
       <c r="K45" s="47"/>
       <c r="L45" s="52" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M45" s="33"/>
       <c r="N45" s="33"/>
@@ -3267,7 +3039,7 @@
     </row>
     <row r="46" spans="1:26" ht="13.5" customHeight="1">
       <c r="A46" s="40" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
@@ -3275,14 +3047,14 @@
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="42" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H46" s="46"/>
       <c r="I46" s="46"/>
       <c r="J46" s="46"/>
       <c r="K46" s="47"/>
       <c r="L46" s="52" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M46" s="33"/>
       <c r="N46" s="33"/>
@@ -3328,20 +3100,18 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="46.5" customHeight="1">
-      <c r="A48" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="82"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="83"/>
       <c r="M48" s="26"/>
       <c r="N48" s="3"/>
       <c r="O48" s="1"/>
@@ -30065,6 +29835,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.34" top="0.51" bottom="0.34" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>